--- a/lung cancer disease/data.xlsx
+++ b/lung cancer disease/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,27 +454,1192 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nama lengkap</t>
+          <t>Nama Pasien</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NIM</t>
+          <t>Umur</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Akun Unesa</t>
+          <t>Jenis Kelamin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mata Kuliah</t>
+          <t>Nomer Telepon</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lokasi </t>
+          <t>Alamat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jaminan Kesehatan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Air Pollution</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Alcohol use</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Dust Allergy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Occupational Hazards</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Genetic Risk</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Chronic Lung Disease</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Balanced Diet</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Obesity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smoking </t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Passive Smoker</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Chest Pain</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Coughing of Blood</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Fatigue</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Weight Loss</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Shortness of Breath</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Wheezing</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Swallowing Difficulty</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Clubbing of Finger Nails</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Frequent Cold</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Dry Cough</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Snoring</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15:36:48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fdfd</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>53532</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>dffvfd</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Non BPJS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15:37:11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fdbdf</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>43224</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>fdvddsf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BPJS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15:38:54</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaskc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>fsds</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BPJS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15:40:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rizkhy</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>453252</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nkdsnkj</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Non BPJS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15:42:09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rixkjbd</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5321</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fdgds</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BPJS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:30:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rizky </t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>26</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>45353</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>cdscds</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BPJS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09 June 2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17:30:56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>abduh ap</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>cscsc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BPJS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>

--- a/lung cancer disease/data.xlsx
+++ b/lung cancer disease/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,40 +596,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15:36:48</t>
+          <t>12:13:27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fdfd</t>
+          <t>kiki</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>53532</t>
+          <t>42242</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dffvfd</t>
+          <t>xfds</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Non BPJS</t>
+          <t>BPJS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -746,21 +746,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:37:11</t>
+          <t>12:13:51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fdbdf</t>
+          <t>fdfd</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -769,12 +769,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43224</t>
+          <t>2323242</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>fdvddsf</t>
+          <t>dfdfd</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -896,21 +896,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:38:54</t>
+          <t>12:15:29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jaskc</t>
+          <t>fdgd</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -919,17 +919,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5353</t>
+          <t>4342422</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>fsds</t>
+          <t>gfdfgdfd</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BPJS</t>
+          <t>Non BPJS</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1046,40 +1046,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15:40:15</t>
+          <t>12:16:41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rizkhy</t>
+          <t>sdcosmk</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>453252</t>
+          <t>424242</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nkdsnkj</t>
+          <t>fdvdfsds</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Non BPJS</t>
+          <t>BPJS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1196,167 +1196,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:42:09</t>
+          <t>12:23:13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rixkjbd</t>
+          <t>fdsfsf</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5321</t>
+          <t>243421</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>fdgds</t>
+          <t>fdsdssc</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BPJS</t>
+          <t>Non BPJS</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:30:05</t>
+          <t>12:24:08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">rizky </t>
+          <t>ruhsidiw</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1369,275 +1369,425 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45353</t>
+          <t>754523</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>cdscds</t>
+          <t>scdscsd</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BPJS</t>
+          <t>Non BPJS</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09 June 2023</t>
+          <t>10 June 2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17:30:56</t>
+          <t>12:25:29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>abduh ap</t>
+          <t>mikel</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>42278</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cscsc</t>
+          <t>edsssd</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BPJS</t>
+          <t>Non BPJS</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10 June 2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12:26:26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jksdjnks</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8232</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>jbdcsjbj</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Non BPJS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>High</t>
         </is>
